--- a/Android/Document/MDZ/Android-第三期-MDZ.xlsx
+++ b/Android/Document/MDZ/Android-第三期-MDZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -168,16 +168,43 @@
   <si>
     <t>未能实现点完即在主页上显示已选择的数据，正在解决</t>
   </si>
+  <si>
+    <t>将选择的数据显示到主页面上来是使用的startActivityForResult方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将三个选择页面中的被选择的数据显示到主页面上来。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能够将选择的内容显示到主页面中来
+</t>
+  </si>
+  <si>
+    <t>实现了将选择的内容显示到主页面上来</t>
+  </si>
+  <si>
+    <t>现在的bug是在双层列表中，选择的多选框错乱，未实现限制选择的个数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今天我们实现了一个新版本，但是其中的bug很多，所以我们到本周五11月6号之前去完善bug。
+bug(1):在双选列表中的被选中的多选框乱动。
+(2):当选中了几个多选框，返回后再点入，并不能将之前选中的显示出来。
+(3):没有限制选多选框的个数。
+</t>
+  </si>
+  <si>
+    <t>把其中的bug都去解决掉，能够有很好的用户体验。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -202,6 +229,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +260,74 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -235,8 +345,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,37 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -296,66 +383,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -366,187 +393,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,15 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -636,32 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,6 +665,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +704,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -701,11 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,148 +741,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A57" sqref="$A57:$XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1822,11 +1849,13 @@
       <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
@@ -1838,8 +1867,208 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
+    <row r="45" ht="30" customHeight="1" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="19">
+        <v>42310</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="19">
+        <v>42311</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" ht="74" customHeight="1" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="61">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -1883,6 +2112,24 @@
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Android/Document/MDZ/Android-第三期-MDZ.xlsx
+++ b/Android/Document/MDZ/Android-第三期-MDZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -195,16 +195,34 @@
   <si>
     <t>把其中的bug都去解决掉，能够有很好的用户体验。</t>
   </si>
+  <si>
+    <t>去寻找解决（2）的问题了，没有找到。</t>
+  </si>
+  <si>
+    <t>上述问题仍然存在。</t>
+  </si>
+  <si>
+    <t>今天研究其中当选完了工作地点等以后，返回后再次进入到其中的后，已经选择仍然处于被选中的状态，但是没有研究出来。</t>
+  </si>
+  <si>
+    <t>选择完以后，进入选择页面就会将选中的标识出来。</t>
+  </si>
+  <si>
+    <t>未解决。</t>
+  </si>
+  <si>
+    <t>今天研究了如何让activity不销毁，当点返回的时候只是onstop，但是在项目中没有成功实现，还有对限制点击checkbox的 个数，目前已经获得了点击的个数，但是现在的实现效果不是 很好。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -243,6 +261,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -251,15 +289,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -279,82 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +379,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,13 +411,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,151 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,17 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,15 +686,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,26 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,6 +719,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +762,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +774,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A57" sqref="$A57:$XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2031,7 +2049,9 @@
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2041,7 +2061,9 @@
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -2067,8 +2089,212 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
+    <row r="63" ht="30" customHeight="1" spans="1:6">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="19">
+        <v>42312</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" ht="29" customHeight="1" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" ht="29" customHeight="1" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="19">
+        <v>42315</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="79">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -2130,6 +2356,24 @@
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Android/Document/MDZ/Android-第三期-MDZ.xlsx
+++ b/Android/Document/MDZ/Android-第三期-MDZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -213,16 +213,28 @@
   <si>
     <t>今天研究了如何让activity不销毁，当点返回的时候只是onstop，但是在项目中没有成功实现，还有对限制点击checkbox的 个数，目前已经获得了点击的个数，但是现在的实现效果不是 很好。</t>
   </si>
+  <si>
+    <t>今天学习了listview的分页技术，用于从网络中读取数据时的缓冲
+还学习了 ImageSwitcher的简单使用，实现图片的轮换
+ViewFlipper是实现图片之间自动的轮换
+popupwindow是实现自定义对话框</t>
+  </si>
+  <si>
+    <t>能够了解每个组件的基本用法</t>
+  </si>
+  <si>
+    <t>上述组件学习完毕</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -246,8 +258,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +355,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,74 +393,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,29 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -411,19 +423,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,163 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,17 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,15 +689,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,26 +708,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,153 +757,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:F76"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2191,7 +2203,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" ht="30" customHeight="1" spans="1:6">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2199,7 +2211,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" ht="30" customHeight="1" spans="1:6">
       <c r="A73" s="6" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2221,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" ht="30" customHeight="1" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2237,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" ht="45" customHeight="1" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2249,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" ht="30" customHeight="1" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2261,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" ht="30" customHeight="1" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>29</v>
       </c>
@@ -2261,7 +2273,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" ht="30" customHeight="1" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2285,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" ht="30" customHeight="1" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>31</v>
       </c>
@@ -2283,7 +2295,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" ht="30" customHeight="1" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2305,108 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
+    <row r="81" ht="30" customHeight="1" spans="1:6">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" ht="30" customHeight="1" spans="1:6">
+      <c r="A82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" ht="30" customHeight="1" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="19">
+        <v>42317</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" ht="57" customHeight="1" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" ht="30" customHeight="1" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="88">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -2374,6 +2486,15 @@
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
